--- a/biology/Zoologie/Crevette_à_pattes_blanches/Crevette_à_pattes_blanches.xlsx
+++ b/biology/Zoologie/Crevette_à_pattes_blanches/Crevette_à_pattes_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crevette_%C3%A0_pattes_blanches</t>
+          <t>Crevette_à_pattes_blanches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penaeus vannamei
 La crevette à pattes blanches, également connue sous le nom de crevette blanche du Pacifique, est une espèce de crustacés vivant dans les eaux tropicales de l'océan Pacifique. La crevette à pattes blanches est aussi élevée pour être consommée.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crevette_%C3%A0_pattes_blanches</t>
+          <t>Crevette_à_pattes_blanches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>longueur du corps : 20 cm
 longueur de la queue : 1 cm
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crevette_%C3%A0_pattes_blanches</t>
+          <t>Crevette_à_pattes_blanches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>maturité sexuelle : 3 ans
 gestation : 1 semaine
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crevette_%C3%A0_pattes_blanches</t>
+          <t>Crevette_à_pattes_blanches</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mers tropicales de l'Amérique du Sud, de l'Amérique centrale et de l'Asie du Sud Est jusqu'au Japon.
 </t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crevette_%C3%A0_pattes_blanches</t>
+          <t>Crevette_à_pattes_blanches</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Plancton</t>
         </is>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Crevette_%C3%A0_pattes_blanches</t>
+          <t>Crevette_à_pattes_blanches</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cétacés, oiseaux et poissons, humains.</t>
         </is>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Crevette_%C3%A0_pattes_blanches</t>
+          <t>Crevette_à_pattes_blanches</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,9 +695,11 @@
           <t>Mode d'élevage</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre de l'élevage pour la consommation humaine, les yeux des femelles reproductrices sont fréquemment arrachés afin d'augmenter leur fréquence de ponte[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre de l'élevage pour la consommation humaine, les yeux des femelles reproductrices sont fréquemment arrachés afin d'augmenter leur fréquence de ponte.
 </t>
         </is>
       </c>
